--- a/Transplants_Sym_D_Counts.xlsx
+++ b/Transplants_Sym_D_Counts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TLPR21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F7FC72-08F2-7A43-8144-C530E885CCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48277AE1-1217-234A-8DC1-28EF9419CA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="500" windowWidth="16580" windowHeight="14240" xr2:uid="{B3B410EB-7B18-8948-AE1E-8D2AB3226EE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24040" windowHeight="14240" xr2:uid="{B3B410EB-7B18-8948-AE1E-8D2AB3226EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="157">
   <si>
     <t>Squares_Counted</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>Sym_Count_Date</t>
+  </si>
+  <si>
+    <t>This one was pretty weird, full of debris and super diluted</t>
   </si>
 </sst>
 </file>
@@ -897,17 +900,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893FF5F1-8187-5D4A-AA3A-F52C7ABDE372}">
-  <dimension ref="A1:T286"/>
+  <dimension ref="A1:U286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U152" sqref="U152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -5194,15 +5198,15 @@
         <v>31</v>
       </c>
       <c r="R129" t="e">
-        <f t="shared" ref="R129:R134" si="26">AVERAGE(J129:Q129)/I129</f>
+        <f t="shared" ref="R129:R133" si="26">AVERAGE(J129:Q129)/I129</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S129" t="e">
-        <f t="shared" ref="S129:S134" si="27">STDEV(J129:Q129)/I129</f>
+        <f t="shared" ref="S129:S133" si="27">STDEV(J129:Q129)/I129</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T129" t="e">
-        <f t="shared" ref="T129:T134" si="28">S129/R129*100</f>
+        <f t="shared" ref="T129:T133" si="28">S129/R129*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5701,7 +5705,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SP_EV</v>
@@ -5734,7 +5738,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SP_JQ1</v>
@@ -5767,7 +5771,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_0AZ4</v>
@@ -5800,7 +5804,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_0DW46</v>
@@ -5833,7 +5837,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_0EV1</v>
@@ -5866,7 +5870,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_0EV3</v>
@@ -5899,7 +5903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_1AZ5</v>
@@ -5919,20 +5923,56 @@
       <c r="F151" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R151" t="e">
+      <c r="G151" s="1">
+        <v>44706</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151">
+        <v>4</v>
+      </c>
+      <c r="J151">
+        <v>30</v>
+      </c>
+      <c r="K151">
+        <v>48</v>
+      </c>
+      <c r="L151">
+        <v>35</v>
+      </c>
+      <c r="M151">
+        <v>34</v>
+      </c>
+      <c r="N151">
+        <v>33</v>
+      </c>
+      <c r="O151">
+        <v>39</v>
+      </c>
+      <c r="P151">
+        <v>36</v>
+      </c>
+      <c r="Q151">
+        <v>30</v>
+      </c>
+      <c r="R151">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S151" t="e">
+        <v>8.90625</v>
+      </c>
+      <c r="S151">
         <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T151" t="e">
+        <v>1.4573551140924537</v>
+      </c>
+      <c r="T151">
         <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+        <v>16.36328549156439</v>
+      </c>
+      <c r="U151" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_2AZ2</v>
@@ -5965,7 +6005,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_2AZ21</v>
@@ -5998,7 +6038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_2AZ3</v>
@@ -6031,7 +6071,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_2AZ7</v>
@@ -6064,7 +6104,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_2AZ7</v>
@@ -6097,7 +6137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_2DW40</v>
@@ -6130,7 +6170,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_2DW44</v>
@@ -6163,7 +6203,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_2EV10</v>
@@ -6196,7 +6236,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
         <f t="shared" si="29"/>
         <v>OFAV_SS_2EV3</v>
@@ -6909,17 +6949,47 @@
       <c r="F181" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R181" t="e">
+      <c r="G181" s="1">
+        <v>44706</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181">
+        <v>3</v>
+      </c>
+      <c r="J181">
+        <v>107</v>
+      </c>
+      <c r="K181">
+        <v>132</v>
+      </c>
+      <c r="L181">
+        <v>121</v>
+      </c>
+      <c r="M181">
+        <v>113</v>
+      </c>
+      <c r="N181">
+        <v>145</v>
+      </c>
+      <c r="O181">
+        <v>98</v>
+      </c>
+      <c r="P181">
+        <v>114</v>
+      </c>
+      <c r="R181">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S181" t="e">
+        <v>39.523809523809526</v>
+      </c>
+      <c r="S181">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T181" t="e">
+        <v>5.2594082995500298</v>
+      </c>
+      <c r="T181">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>13.306936661512122</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.2">
@@ -7008,17 +7078,44 @@
       <c r="F184" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R184" t="e">
+      <c r="G184" s="1">
+        <v>44706</v>
+      </c>
+      <c r="H184" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
+      <c r="J184">
+        <v>117</v>
+      </c>
+      <c r="K184">
+        <v>131</v>
+      </c>
+      <c r="L184">
+        <v>139</v>
+      </c>
+      <c r="M184">
+        <v>156</v>
+      </c>
+      <c r="N184">
+        <v>137</v>
+      </c>
+      <c r="O184">
+        <v>131</v>
+      </c>
+      <c r="R184">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S184" t="e">
+        <v>45.05555555555555</v>
+      </c>
+      <c r="S184">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T184" t="e">
+        <v>4.2604990144174257</v>
+      </c>
+      <c r="T184">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>9.4561013883494045</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.2">
@@ -7107,17 +7204,44 @@
       <c r="F187" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R187" t="e">
+      <c r="G187" s="1">
+        <v>44706</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187">
+        <v>3</v>
+      </c>
+      <c r="J187">
+        <v>103</v>
+      </c>
+      <c r="K187">
+        <v>122</v>
+      </c>
+      <c r="L187">
+        <v>121</v>
+      </c>
+      <c r="M187">
+        <v>108</v>
+      </c>
+      <c r="N187">
+        <v>127</v>
+      </c>
+      <c r="O187">
+        <v>122</v>
+      </c>
+      <c r="R187">
         <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S187" t="e">
+        <v>39.055555555555557</v>
+      </c>
+      <c r="S187">
         <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T187" t="e">
+        <v>3.1369954958113571</v>
+      </c>
+      <c r="T187">
         <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
+        <v>8.0321364046378978</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.2">

--- a/Transplants_Sym_D_Counts.xlsx
+++ b/Transplants_Sym_D_Counts.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mi5uXv3+d1ojAV8EIDkHoHwX5wKaA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjhH5JBdWY27OwHhrdB/5IEExox9w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="181">
   <si>
     <t>Full_ID</t>
   </si>
@@ -166,6 +166,15 @@
     <t>PS</t>
   </si>
   <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Not currently an aliquot in freezer</t>
+  </si>
+  <si>
+    <t>*aliquot spilled, needs to be re-done</t>
+  </si>
+  <si>
     <t xml:space="preserve">p </t>
   </si>
   <si>
@@ -250,16 +259,13 @@
     <t>SS</t>
   </si>
   <si>
-    <t>TL</t>
-  </si>
-  <si>
     <t>0DW46</t>
   </si>
   <si>
     <t>1AZ5</t>
   </si>
   <si>
-    <t>This one was pretty weird, full of debris and super diluted</t>
+    <t>*This one was pretty weird, full of debris and super diluted</t>
   </si>
   <si>
     <t>2AZ2</t>
@@ -280,6 +286,9 @@
     <t>2EV3</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>2EV30</t>
   </si>
   <si>
@@ -316,6 +325,9 @@
     <t>9AZ81</t>
   </si>
   <si>
+    <t xml:space="preserve">TL </t>
+  </si>
+  <si>
     <t>9DW37</t>
   </si>
   <si>
@@ -403,6 +415,9 @@
     <t>9GT30</t>
   </si>
   <si>
+    <t>Labeled as 0HS1 on the side</t>
+  </si>
+  <si>
     <t>0GT3</t>
   </si>
   <si>
@@ -466,7 +481,10 @@
     <t>Good</t>
   </si>
   <si>
-    <t>Bad</t>
+    <t>Bad (more than 15)</t>
+  </si>
+  <si>
+    <t>Really bad (more than 20)</t>
   </si>
   <si>
     <t>Uncounted</t>
@@ -563,9 +581,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -631,14 +649,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -717,7 +735,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -725,6 +742,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -992,7 +1010,10 @@
     <col customWidth="1" min="18" max="18" width="18.33"/>
     <col customWidth="1" min="19" max="19" width="17.33"/>
     <col customWidth="1" min="20" max="20" width="12.11"/>
-    <col customWidth="1" min="21" max="26" width="10.56"/>
+    <col customWidth="1" min="21" max="24" width="10.56"/>
+    <col customWidth="1" min="25" max="25" width="15.11"/>
+    <col customWidth="1" min="26" max="26" width="20.0"/>
+    <col customWidth="1" min="27" max="27" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -2364,17 +2385,50 @@
       <c r="F41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R41" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S41" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T41" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G41" s="7">
+        <v>44755.0</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="K41" s="8">
+        <v>148.0</v>
+      </c>
+      <c r="L41" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="M41" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="N41" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="O41" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="P41" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="2"/>
+        <v>28.1875</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="3"/>
+        <v>5.653301817</v>
+      </c>
+      <c r="T41" s="9">
+        <f t="shared" si="4"/>
+        <v>20.05605966</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -2397,17 +2451,44 @@
       <c r="F42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R42" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S42" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T42" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G42" s="7">
+        <v>44741.0</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="K42" s="8">
+        <v>85.0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="O42" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="2"/>
+        <v>29.77777778</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="3"/>
+        <v>4.29297445</v>
+      </c>
+      <c r="T42" s="10">
+        <f t="shared" si="4"/>
+        <v>14.41670524</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -2430,17 +2511,44 @@
       <c r="F43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S43" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T43" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G43" s="7">
+        <v>44744.0</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J43" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="K43" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="M43" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="R43" s="3">
+        <f t="shared" si="2"/>
+        <v>23.54166667</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="3"/>
+        <v>3.425699442</v>
+      </c>
+      <c r="T43" s="10">
+        <f t="shared" si="4"/>
+        <v>14.55164365</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -2463,17 +2571,44 @@
       <c r="F44" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R44" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S44" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T44" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G44" s="7">
+        <v>44744.0</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J44" s="8">
+        <v>131.0</v>
+      </c>
+      <c r="K44" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>148.0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>137.0</v>
+      </c>
+      <c r="N44" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>122.0</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="2"/>
+        <v>33.54166667</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="3"/>
+        <v>2.425987771</v>
+      </c>
+      <c r="T44" s="10">
+        <f t="shared" si="4"/>
+        <v>7.232758573</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -2496,17 +2631,44 @@
       <c r="F45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R45" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S45" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T45" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G45" s="7">
+        <v>44756.0</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J45" s="8">
+        <v>178.0</v>
+      </c>
+      <c r="K45" s="8">
+        <v>171.0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>159.0</v>
+      </c>
+      <c r="M45" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="N45" s="8">
+        <v>148.0</v>
+      </c>
+      <c r="O45" s="8">
+        <v>159.0</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="2"/>
+        <v>77.5</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="3"/>
+        <v>11.10405331</v>
+      </c>
+      <c r="T45" s="10">
+        <f t="shared" si="4"/>
+        <v>14.32781073</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -2529,17 +2691,47 @@
       <c r="F46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R46" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S46" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G46" s="7">
+        <v>44755.0</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J46" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="M46" s="8">
+        <v>99.0</v>
+      </c>
+      <c r="N46" s="8">
+        <v>66.0</v>
+      </c>
+      <c r="O46" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="P46" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="2"/>
+        <v>46.78571429</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="3"/>
+        <v>10.13186863</v>
+      </c>
+      <c r="T46" s="9">
+        <f t="shared" si="4"/>
+        <v>21.65590241</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -2562,17 +2754,44 @@
       <c r="F47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S47" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T47" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G47" s="7">
+        <v>44741.0</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="M47" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="N47" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="O47" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="2"/>
+        <v>40.27777778</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="3"/>
+        <v>5.623034636</v>
+      </c>
+      <c r="T47" s="10">
+        <f t="shared" si="4"/>
+        <v>13.96063772</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -2595,17 +2814,50 @@
       <c r="F48" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R48" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S48" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T48" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G48" s="7">
+        <v>44755.0</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>147.0</v>
+      </c>
+      <c r="K48" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="M48" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="N48" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="O48" s="8">
+        <v>109.0</v>
+      </c>
+      <c r="P48" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" si="2"/>
+        <v>29.46875</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="3"/>
+        <v>5.362631117</v>
+      </c>
+      <c r="T48" s="9">
+        <f t="shared" si="4"/>
+        <v>18.19768778</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -2628,17 +2880,44 @@
       <c r="F49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R49" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S49" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G49" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="M49" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="N49" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="O49" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="R49" s="3">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+      <c r="S49" s="3">
+        <f t="shared" si="3"/>
+        <v>3.259601203</v>
+      </c>
+      <c r="T49" s="10">
+        <f t="shared" si="4"/>
+        <v>12.78274981</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -2661,17 +2940,44 @@
       <c r="F50" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R50" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S50" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T50" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G50" s="7">
+        <v>44755.0</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>205.0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>262.0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>204.0</v>
+      </c>
+      <c r="M50" s="8">
+        <v>194.0</v>
+      </c>
+      <c r="N50" s="8">
+        <v>234.0</v>
+      </c>
+      <c r="O50" s="8">
+        <v>205.0</v>
+      </c>
+      <c r="R50" s="3">
+        <f t="shared" si="2"/>
+        <v>54.33333333</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="3"/>
+        <v>6.421967507</v>
+      </c>
+      <c r="T50" s="10">
+        <f t="shared" si="4"/>
+        <v>11.8195721</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -2694,6 +3000,9 @@
       <c r="F51" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="G51" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="R51" s="3" t="str">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2705,6 +3014,9 @@
       <c r="T51" s="3" t="str">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="U51" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -2727,17 +3039,50 @@
       <c r="F52" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S52" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T52" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G52" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>109.0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="M52" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="N52" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="O52" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="P52" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="R52" s="3">
+        <f t="shared" si="2"/>
+        <v>31.08333333</v>
+      </c>
+      <c r="S52" s="3">
+        <f t="shared" si="3"/>
+        <v>4.506608904</v>
+      </c>
+      <c r="T52" s="10">
+        <f t="shared" si="4"/>
+        <v>14.49847368</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -2758,19 +3103,46 @@
         <v>362.0</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="7">
+        <v>44756.0</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S53" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T53" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="I53" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>132.0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="L53" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="M53" s="8">
+        <v>133.0</v>
+      </c>
+      <c r="N53" s="8">
+        <v>147.0</v>
+      </c>
+      <c r="O53" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="R53" s="3">
+        <f t="shared" si="2"/>
+        <v>42.61111111</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="3"/>
+        <v>4.538314257</v>
+      </c>
+      <c r="T53" s="10">
+        <f t="shared" si="4"/>
+        <v>10.65054193</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -2791,19 +3163,52 @@
         <v>365.0</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R54" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S54" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T54" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>53</v>
+      </c>
+      <c r="G54" s="7">
+        <v>44744.0</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>109.0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="M54" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="N54" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="O54" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="P54" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="R54" s="3">
+        <f t="shared" si="2"/>
+        <v>54.75</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" si="3"/>
+        <v>8.048957342</v>
+      </c>
+      <c r="T54" s="10">
+        <f t="shared" si="4"/>
+        <v>14.70129195</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -2824,19 +3229,52 @@
         <v>365.0</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R55" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S55" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T55" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>54</v>
+      </c>
+      <c r="G55" s="11">
+        <v>44742.0</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I55" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>139.0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="M55" s="8">
+        <v>83.0</v>
+      </c>
+      <c r="N55" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="O55" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="P55" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="R55" s="3">
+        <f t="shared" si="2"/>
+        <v>37.91666667</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="3"/>
+        <v>5.830271305</v>
+      </c>
+      <c r="T55" s="9">
+        <f t="shared" si="4"/>
+        <v>15.37653971</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -2859,17 +3297,50 @@
       <c r="F56" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R56" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S56" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T56" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G56" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J56" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="L56" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="M56" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="N56" s="8">
+        <v>78.0</v>
+      </c>
+      <c r="O56" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="P56" s="8">
+        <v>83.0</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="R56" s="3">
+        <f t="shared" si="2"/>
+        <v>27.95833333</v>
+      </c>
+      <c r="S56" s="3">
+        <f t="shared" si="3"/>
+        <v>4.596194078</v>
+      </c>
+      <c r="T56" s="9">
+        <f t="shared" si="4"/>
+        <v>16.4394423</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -2892,17 +3363,44 @@
       <c r="F57" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S57" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T57" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G57" s="7">
+        <v>44742.0</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J57" s="8">
+        <v>162.0</v>
+      </c>
+      <c r="K57" s="8">
+        <v>168.0</v>
+      </c>
+      <c r="L57" s="8">
+        <v>187.0</v>
+      </c>
+      <c r="M57" s="8">
+        <v>154.0</v>
+      </c>
+      <c r="N57" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="O57" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="R57" s="3">
+        <f t="shared" si="2"/>
+        <v>79.08333333</v>
+      </c>
+      <c r="S57" s="3">
+        <f t="shared" si="3"/>
+        <v>9.956990844</v>
+      </c>
+      <c r="T57" s="10">
+        <f t="shared" si="4"/>
+        <v>12.59050476</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -2925,17 +3423,44 @@
       <c r="F58" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S58" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T58" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G58" s="7">
+        <v>44756.0</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J58" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="K58" s="8">
+        <v>170.0</v>
+      </c>
+      <c r="L58" s="8">
+        <v>202.0</v>
+      </c>
+      <c r="M58" s="8">
+        <v>162.0</v>
+      </c>
+      <c r="N58" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="O58" s="8">
+        <v>173.0</v>
+      </c>
+      <c r="R58" s="3">
+        <f t="shared" si="2"/>
+        <v>41.33333333</v>
+      </c>
+      <c r="S58" s="3">
+        <f t="shared" si="3"/>
+        <v>5.726400848</v>
+      </c>
+      <c r="T58" s="10">
+        <f t="shared" si="4"/>
+        <v>13.8541956</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -2958,17 +3483,50 @@
       <c r="F59" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R59" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S59" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T59" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G59" s="7">
+        <v>44744.0</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J59" s="8">
+        <v>167.0</v>
+      </c>
+      <c r="K59" s="8">
+        <v>149.0</v>
+      </c>
+      <c r="L59" s="8">
+        <v>138.0</v>
+      </c>
+      <c r="M59" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="N59" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="O59" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="P59" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="R59" s="3">
+        <f t="shared" si="2"/>
+        <v>65.3125</v>
+      </c>
+      <c r="S59" s="3">
+        <f t="shared" si="3"/>
+        <v>9.917291897</v>
+      </c>
+      <c r="T59" s="9">
+        <f t="shared" si="4"/>
+        <v>15.18437037</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -2991,17 +3549,44 @@
       <c r="F60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R60" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S60" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T60" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G60" s="7">
+        <v>44742.0</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J60" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="K60" s="8">
+        <v>148.0</v>
+      </c>
+      <c r="L60" s="8">
+        <v>169.0</v>
+      </c>
+      <c r="M60" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="N60" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="O60" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="R60" s="3">
+        <f t="shared" si="2"/>
+        <v>48.22222222</v>
+      </c>
+      <c r="S60" s="3">
+        <f t="shared" si="3"/>
+        <v>4.847297834</v>
+      </c>
+      <c r="T60" s="10">
+        <f t="shared" si="4"/>
+        <v>10.05200012</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -3024,17 +3609,44 @@
       <c r="F61" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R61" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S61" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T61" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G61" s="7">
+        <v>44741.0</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I61" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J61" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="K61" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="L61" s="8">
+        <v>67.0</v>
+      </c>
+      <c r="M61" s="8">
+        <v>61.0</v>
+      </c>
+      <c r="N61" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="O61" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="R61" s="3">
+        <f t="shared" si="2"/>
+        <v>19.41666667</v>
+      </c>
+      <c r="S61" s="3">
+        <f t="shared" si="3"/>
+        <v>4.106904755</v>
+      </c>
+      <c r="T61" s="9">
+        <f t="shared" si="4"/>
+        <v>21.1514408</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -3057,17 +3669,50 @@
       <c r="F62" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R62" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S62" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T62" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G62" s="7">
+        <v>44744.0</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J62" s="8">
+        <v>152.0</v>
+      </c>
+      <c r="K62" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="L62" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="M62" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="N62" s="8">
+        <v>133.0</v>
+      </c>
+      <c r="O62" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="P62" s="8">
+        <v>140.0</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="R62" s="3">
+        <f t="shared" si="2"/>
+        <v>40.75</v>
+      </c>
+      <c r="S62" s="3">
+        <f t="shared" si="3"/>
+        <v>6.47277571</v>
+      </c>
+      <c r="T62" s="9">
+        <f t="shared" si="4"/>
+        <v>15.88411217</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -3090,17 +3735,44 @@
       <c r="F63" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R63" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S63" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T63" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G63" s="7">
+        <v>44755.0</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J63" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="K63" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="L63" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="M63" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="N63" s="8">
+        <v>67.0</v>
+      </c>
+      <c r="O63" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="R63" s="3">
+        <f t="shared" si="2"/>
+        <v>16.875</v>
+      </c>
+      <c r="S63" s="3">
+        <f t="shared" si="3"/>
+        <v>2.090155497</v>
+      </c>
+      <c r="T63" s="10">
+        <f t="shared" si="4"/>
+        <v>12.38610665</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -3123,17 +3795,47 @@
       <c r="F64" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R64" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S64" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T64" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G64" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J64" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="K64" s="8">
+        <v>99.0</v>
+      </c>
+      <c r="L64" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="M64" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="N64" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="O64" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="P64" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="R64" s="3">
+        <f t="shared" si="2"/>
+        <v>19.64285714</v>
+      </c>
+      <c r="S64" s="3">
+        <f t="shared" si="3"/>
+        <v>5.215875492</v>
+      </c>
+      <c r="T64" s="9">
+        <f t="shared" si="4"/>
+        <v>26.55354796</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -3156,17 +3858,44 @@
       <c r="F65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R65" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S65" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T65" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G65" s="7">
+        <v>44744.0</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I65" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J65" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="K65" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="L65" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="M65" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="N65" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="O65" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="R65" s="3">
+        <f t="shared" si="2"/>
+        <v>28.27777778</v>
+      </c>
+      <c r="S65" s="3">
+        <f t="shared" si="3"/>
+        <v>6.793515427</v>
+      </c>
+      <c r="T65" s="9">
+        <f t="shared" si="4"/>
+        <v>24.02421958</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -3189,17 +3918,47 @@
       <c r="F66" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R66" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S66" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T66" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G66" s="11">
+        <v>44756.0</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J66" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="K66" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="L66" s="8">
+        <v>169.0</v>
+      </c>
+      <c r="M66" s="8">
+        <v>129.0</v>
+      </c>
+      <c r="N66" s="8">
+        <v>84.0</v>
+      </c>
+      <c r="O66" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="P66" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="R66" s="3">
+        <f t="shared" si="2"/>
+        <v>29.71428571</v>
+      </c>
+      <c r="S66" s="3">
+        <f t="shared" si="3"/>
+        <v>6.99319397</v>
+      </c>
+      <c r="T66" s="9">
+        <f t="shared" si="4"/>
+        <v>23.5347874</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -3222,17 +3981,44 @@
       <c r="F67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R67" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S67" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T67" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G67" s="7">
+        <v>44741.0</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J67" s="8">
+        <v>136.0</v>
+      </c>
+      <c r="K67" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="L67" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="M67" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="N67" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="O67" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="R67" s="3">
+        <f t="shared" si="2"/>
+        <v>64.66666667</v>
+      </c>
+      <c r="S67" s="3">
+        <f t="shared" si="3"/>
+        <v>4.833908012</v>
+      </c>
+      <c r="T67" s="10">
+        <f t="shared" si="4"/>
+        <v>7.475115482</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -3255,17 +4041,44 @@
       <c r="F68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R68" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S68" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T68" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G68" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I68" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J68" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="K68" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="L68" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="M68" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="N68" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="O68" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="R68" s="3">
+        <f t="shared" si="2"/>
+        <v>13.58333333</v>
+      </c>
+      <c r="S68" s="3">
+        <f t="shared" si="3"/>
+        <v>4.678853136</v>
+      </c>
+      <c r="T68" s="9">
+        <f t="shared" si="4"/>
+        <v>34.44554456</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -3288,17 +4101,44 @@
       <c r="F69" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R69" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S69" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T69" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G69" s="7">
+        <v>44741.0</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J69" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="K69" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="L69" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="M69" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="N69" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="O69" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="R69" s="3">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="S69" s="3">
+        <f t="shared" si="3"/>
+        <v>4.404543109</v>
+      </c>
+      <c r="T69" s="10">
+        <f t="shared" si="4"/>
+        <v>8.156561313</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -3321,17 +4161,44 @@
       <c r="F70" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R70" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S70" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T70" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G70" s="7">
+        <v>44756.0</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I70" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J70" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="K70" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="L70" s="8">
+        <v>137.0</v>
+      </c>
+      <c r="M70" s="8">
+        <v>136.0</v>
+      </c>
+      <c r="N70" s="8">
+        <v>131.0</v>
+      </c>
+      <c r="O70" s="8">
+        <v>138.0</v>
+      </c>
+      <c r="R70" s="3">
+        <f t="shared" si="2"/>
+        <v>33.875</v>
+      </c>
+      <c r="S70" s="3">
+        <f t="shared" si="3"/>
+        <v>1.05770979</v>
+      </c>
+      <c r="T70" s="10">
+        <f t="shared" si="4"/>
+        <v>3.122390524</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -3354,17 +4221,44 @@
       <c r="F71" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R71" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S71" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T71" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G71" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I71" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J71" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="K71" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="L71" s="8">
+        <v>148.0</v>
+      </c>
+      <c r="M71" s="8">
+        <v>162.0</v>
+      </c>
+      <c r="N71" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="O71" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="R71" s="3">
+        <f t="shared" si="2"/>
+        <v>33.45833333</v>
+      </c>
+      <c r="S71" s="3">
+        <f t="shared" si="3"/>
+        <v>4.302373376</v>
+      </c>
+      <c r="T71" s="10">
+        <f t="shared" si="4"/>
+        <v>12.85889926</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -3387,17 +4281,44 @@
       <c r="F72" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R72" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S72" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T72" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G72" s="7">
+        <v>44744.0</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J72" s="8">
+        <v>122.0</v>
+      </c>
+      <c r="K72" s="8">
+        <v>138.0</v>
+      </c>
+      <c r="L72" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="M72" s="8">
+        <v>139.0</v>
+      </c>
+      <c r="N72" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="O72" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="R72" s="3">
+        <f t="shared" si="2"/>
+        <v>59.91666667</v>
+      </c>
+      <c r="S72" s="3">
+        <f t="shared" si="3"/>
+        <v>8.985636687</v>
+      </c>
+      <c r="T72" s="10">
+        <f t="shared" si="4"/>
+        <v>14.99689016</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -3415,22 +4336,49 @@
         <v>36.0</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R73" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S73" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T73" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G73" s="7">
+        <v>44744.0</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J73" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="K73" s="8">
+        <v>220.0</v>
+      </c>
+      <c r="L73" s="8">
+        <v>199.0</v>
+      </c>
+      <c r="M73" s="8">
+        <v>219.0</v>
+      </c>
+      <c r="N73" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="O73" s="8">
+        <v>200.0</v>
+      </c>
+      <c r="R73" s="3">
+        <f t="shared" si="2"/>
+        <v>66.77777778</v>
+      </c>
+      <c r="S73" s="3">
+        <f t="shared" si="3"/>
+        <v>5.596295071</v>
+      </c>
+      <c r="T73" s="10">
+        <f t="shared" si="4"/>
+        <v>8.380475147</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -3453,17 +4401,44 @@
       <c r="F74" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R74" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S74" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T74" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G74" s="7">
+        <v>44744.0</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I74" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J74" s="8">
+        <v>167.0</v>
+      </c>
+      <c r="K74" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="L74" s="8">
+        <v>163.0</v>
+      </c>
+      <c r="M74" s="8">
+        <v>159.0</v>
+      </c>
+      <c r="N74" s="8">
+        <v>163.0</v>
+      </c>
+      <c r="O74" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="R74" s="3">
+        <f t="shared" si="2"/>
+        <v>51.61111111</v>
+      </c>
+      <c r="S74" s="3">
+        <f t="shared" si="3"/>
+        <v>5.043881515</v>
+      </c>
+      <c r="T74" s="10">
+        <f t="shared" si="4"/>
+        <v>9.772859771</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -3486,17 +4461,50 @@
       <c r="F75" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R75" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S75" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T75" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G75" s="7">
+        <v>44742.0</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I75" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J75" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="K75" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="L75" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="M75" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="N75" s="8">
+        <v>88.0</v>
+      </c>
+      <c r="O75" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="P75" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>85.0</v>
+      </c>
+      <c r="R75" s="3">
+        <f t="shared" si="2"/>
+        <v>29.25</v>
+      </c>
+      <c r="S75" s="3">
+        <f t="shared" si="3"/>
+        <v>4.315898994</v>
+      </c>
+      <c r="T75" s="10">
+        <f t="shared" si="4"/>
+        <v>14.75521024</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -3519,17 +4527,50 @@
       <c r="F76" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R76" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S76" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T76" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G76" s="7">
+        <v>44755.0</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J76" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="K76" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="L76" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="M76" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="N76" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="O76" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="P76" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="R76" s="3">
+        <f t="shared" si="2"/>
+        <v>23.71875</v>
+      </c>
+      <c r="S76" s="3">
+        <f t="shared" si="3"/>
+        <v>4.023230534</v>
+      </c>
+      <c r="T76" s="9">
+        <f t="shared" si="4"/>
+        <v>16.96223677</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -3552,17 +4593,47 @@
       <c r="F77" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R77" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S77" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T77" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G77" s="7">
+        <v>44741.0</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I77" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J77" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="K77" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="L77" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="M77" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="N77" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="O77" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="P77" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="R77" s="3">
+        <f t="shared" si="2"/>
+        <v>11.75</v>
+      </c>
+      <c r="S77" s="3">
+        <f t="shared" si="3"/>
+        <v>3.567795771</v>
+      </c>
+      <c r="T77" s="9">
+        <f t="shared" si="4"/>
+        <v>30.36421933</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -3580,22 +4651,55 @@
         <v>22</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R78" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S78" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T78" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G78" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I78" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J78" s="8">
+        <v>137.0</v>
+      </c>
+      <c r="K78" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="L78" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="M78" s="8">
+        <v>83.0</v>
+      </c>
+      <c r="N78" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="O78" s="8">
+        <v>99.0</v>
+      </c>
+      <c r="P78" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="R78" s="3">
+        <f t="shared" si="2"/>
+        <v>36.33333333</v>
+      </c>
+      <c r="S78" s="3">
+        <f t="shared" si="3"/>
+        <v>8.088792953</v>
+      </c>
+      <c r="T78" s="9">
+        <f t="shared" si="4"/>
+        <v>22.2627329</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -3613,22 +4717,49 @@
         <v>22</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R79" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S79" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T79" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G79" s="7">
+        <v>44742.0</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I79" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J79" s="8">
+        <v>165.0</v>
+      </c>
+      <c r="K79" s="8">
+        <v>166.0</v>
+      </c>
+      <c r="L79" s="8">
+        <v>122.0</v>
+      </c>
+      <c r="M79" s="8">
+        <v>144.0</v>
+      </c>
+      <c r="N79" s="8">
+        <v>172.0</v>
+      </c>
+      <c r="O79" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="R79" s="3">
+        <f t="shared" si="2"/>
+        <v>50.16666667</v>
+      </c>
+      <c r="S79" s="3">
+        <f t="shared" si="3"/>
+        <v>6.732178119</v>
+      </c>
+      <c r="T79" s="10">
+        <f t="shared" si="4"/>
+        <v>13.41962416</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -3640,13 +4771,13 @@
         <v>20</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>24</v>
@@ -3673,13 +4804,13 @@
         <v>20</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D81" s="5">
         <v>1.0</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>24</v>
@@ -3706,16 +4837,16 @@
         <v>20</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D82" s="5">
         <v>4.0</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R82" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3739,16 +4870,16 @@
         <v>20</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D83" s="5">
         <v>4.0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R83" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3772,16 +4903,16 @@
         <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D84" s="5">
         <v>7.0</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R84" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3805,16 +4936,16 @@
         <v>20</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D85" s="5">
         <v>7.0</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R85" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3838,16 +4969,16 @@
         <v>20</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D86" s="5">
         <v>9.0</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R86" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3871,16 +5002,16 @@
         <v>20</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D87" s="5">
         <v>9.0</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R87" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3904,16 +5035,16 @@
         <v>20</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D88" s="5">
         <v>9.0</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R88" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3937,16 +5068,16 @@
         <v>20</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D89" s="5">
         <v>9.0</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R89" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3970,16 +5101,16 @@
         <v>20</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D90" s="5">
         <v>19.0</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R90" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4003,16 +5134,16 @@
         <v>20</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D91" s="5">
         <v>19.0</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R91" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4036,16 +5167,16 @@
         <v>20</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D92" s="5">
         <v>19.0</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R92" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4069,13 +5200,13 @@
         <v>20</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D93" s="5">
         <v>21.0</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>24</v>
@@ -4102,16 +5233,16 @@
         <v>20</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D94" s="5">
         <v>23.0</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R94" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4135,16 +5266,16 @@
         <v>20</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D95" s="5">
         <v>23.0</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R95" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4168,16 +5299,16 @@
         <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D96" s="5">
         <v>23.0</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R96" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4201,16 +5332,16 @@
         <v>20</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D97" s="5">
         <v>23.0</v>
       </c>
       <c r="E97" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="R97" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4234,16 +5365,16 @@
         <v>20</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D98" s="5">
         <v>24.0</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R98" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4267,16 +5398,16 @@
         <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D99" s="5">
         <v>24.0</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R99" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4300,16 +5431,16 @@
         <v>20</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D100" s="5">
         <v>24.0</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R100" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4333,16 +5464,16 @@
         <v>20</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D101" s="5">
         <v>24.0</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="R101" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4366,16 +5497,16 @@
         <v>20</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D102" s="5">
         <v>24.0</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="R102" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4399,13 +5530,13 @@
         <v>20</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>24</v>
@@ -4432,13 +5563,13 @@
         <v>20</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D104" s="5">
         <v>25.0</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>24</v>
@@ -4465,13 +5596,13 @@
         <v>20</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D105" s="5">
         <v>28.0</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>24</v>
@@ -4498,13 +5629,13 @@
         <v>20</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D106" s="5">
         <v>30.0</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>24</v>
@@ -4531,13 +5662,13 @@
         <v>20</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D107" s="5">
         <v>31.0</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>24</v>
@@ -4564,13 +5695,13 @@
         <v>20</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D108" s="5">
         <v>37.0</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>24</v>
@@ -4597,13 +5728,13 @@
         <v>20</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>24</v>
@@ -4630,13 +5761,13 @@
         <v>20</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>24</v>
@@ -4663,22 +5794,22 @@
         <v>20</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D111" s="5">
         <v>1.0</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G111" s="12">
         <v>44736.0</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I111" s="8">
         <v>3.0</v>
@@ -4709,7 +5840,7 @@
         <f t="shared" si="3"/>
         <v>4.38516016</v>
       </c>
-      <c r="T111" s="9">
+      <c r="T111" s="10">
         <f t="shared" si="4"/>
         <v>10.75379876</v>
       </c>
@@ -4723,22 +5854,22 @@
         <v>20</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D112" s="5">
         <v>2.0</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G112" s="7">
+      <c r="G112" s="12">
         <v>44736.0</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I112" s="8">
         <v>2.0</v>
@@ -4769,7 +5900,7 @@
         <f t="shared" si="3"/>
         <v>8.700574694</v>
       </c>
-      <c r="T112" s="9">
+      <c r="T112" s="10">
         <f t="shared" si="4"/>
         <v>10.41984993</v>
       </c>
@@ -4783,28 +5914,58 @@
         <v>20</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D113" s="5">
         <v>4.0</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R113" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S113" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T113" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G113" s="12">
+        <v>44740.0</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I113" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J113" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="K113" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="L113" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="M113" s="8">
+        <v>78.0</v>
+      </c>
+      <c r="N113" s="8">
+        <v>70.0</v>
+      </c>
+      <c r="O113" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="P113" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="R113" s="3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="S113" s="3">
+        <f t="shared" si="3"/>
+        <v>3.088958832</v>
+      </c>
+      <c r="T113" s="10">
+        <f t="shared" si="4"/>
+        <v>14.70932777</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -4816,22 +5977,22 @@
         <v>20</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D114" s="5">
         <v>5.0</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="13">
         <v>44706.0</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I114" s="3">
         <v>4.0</v>
@@ -4868,12 +6029,12 @@
         <f t="shared" si="3"/>
         <v>1.457355114</v>
       </c>
-      <c r="T114" s="11">
+      <c r="T114" s="9">
         <f t="shared" si="4"/>
         <v>16.36328549</v>
       </c>
-      <c r="U114" s="3" t="s">
-        <v>80</v>
+      <c r="U114" s="8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
@@ -4885,22 +6046,22 @@
         <v>20</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D115" s="5">
         <v>6.0</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G115" s="12">
+      <c r="G115" s="7">
         <v>44728.0</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I115" s="8">
         <v>2.0</v>
@@ -4931,7 +6092,7 @@
         <f t="shared" si="3"/>
         <v>9.780933834</v>
       </c>
-      <c r="T115" s="9">
+      <c r="T115" s="10">
         <f t="shared" si="4"/>
         <v>12.98354049</v>
       </c>
@@ -4945,28 +6106,55 @@
         <v>20</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D116" s="5">
         <v>7.0</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R116" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S116" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T116" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G116" s="7">
+        <v>44740.0</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I116" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J116" s="8">
+        <v>139.0</v>
+      </c>
+      <c r="K116" s="8">
+        <v>144.0</v>
+      </c>
+      <c r="L116" s="8">
+        <v>154.0</v>
+      </c>
+      <c r="M116" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="N116" s="8">
+        <v>129.0</v>
+      </c>
+      <c r="O116" s="8">
+        <v>132.0</v>
+      </c>
+      <c r="R116" s="3">
+        <f t="shared" si="2"/>
+        <v>45.33333333</v>
+      </c>
+      <c r="S116" s="3">
+        <f t="shared" si="3"/>
+        <v>4.179314138</v>
+      </c>
+      <c r="T116" s="10">
+        <f t="shared" si="4"/>
+        <v>9.219075305</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
@@ -4978,28 +6166,61 @@
         <v>20</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D117" s="5">
         <v>9.0</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R117" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S117" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T117" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>53</v>
+      </c>
+      <c r="G117" s="7">
+        <v>44739.0</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I117" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J117" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="K117" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="L117" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="M117" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="N117" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="O117" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="P117" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="Q117" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="R117" s="3">
+        <f t="shared" si="2"/>
+        <v>97.375</v>
+      </c>
+      <c r="S117" s="3">
+        <f t="shared" si="3"/>
+        <v>17.00367607</v>
+      </c>
+      <c r="T117" s="9">
+        <f t="shared" si="4"/>
+        <v>17.46205502</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -5011,28 +6232,55 @@
         <v>20</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D118" s="5">
         <v>9.0</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R118" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S118" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T118" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>54</v>
+      </c>
+      <c r="G118" s="7">
+        <v>44739.0</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I118" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J118" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="K118" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="L118" s="8">
+        <v>182.0</v>
+      </c>
+      <c r="M118" s="8">
+        <v>137.0</v>
+      </c>
+      <c r="N118" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="O118" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="R118" s="3">
+        <f t="shared" si="2"/>
+        <v>43.72222222</v>
+      </c>
+      <c r="S118" s="3">
+        <f t="shared" si="3"/>
+        <v>8.87297186</v>
+      </c>
+      <c r="T118" s="9">
+        <f t="shared" si="4"/>
+        <v>20.29396359</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
@@ -5044,22 +6292,22 @@
         <v>20</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D119" s="5">
         <v>10.0</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G119" s="12">
+      <c r="G119" s="7">
         <v>44736.0</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I119" s="8">
         <v>2.0</v>
@@ -5090,7 +6338,7 @@
         <f t="shared" si="3"/>
         <v>2.311204592</v>
       </c>
-      <c r="T119" s="9">
+      <c r="T119" s="10">
         <f t="shared" si="4"/>
         <v>3.794043106</v>
       </c>
@@ -5104,22 +6352,22 @@
         <v>20</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D120" s="5">
         <v>11.0</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G120" s="13">
+      <c r="G120" s="11">
         <v>44720.0</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I120" s="8">
         <v>2.0</v>
@@ -5150,7 +6398,7 @@
         <f t="shared" si="3"/>
         <v>3.573047252</v>
       </c>
-      <c r="T120" s="9">
+      <c r="T120" s="10">
         <f t="shared" si="4"/>
         <v>6.699463598</v>
       </c>
@@ -5164,28 +6412,55 @@
         <v>20</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D121" s="5">
         <v>12.0</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R121" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S121" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T121" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G121" s="7">
+        <v>44740.0</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I121" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J121" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="K121" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="L121" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="M121" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="N121" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="O121" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="R121" s="3">
+        <f t="shared" si="2"/>
+        <v>10.125</v>
+      </c>
+      <c r="S121" s="3">
+        <f t="shared" si="3"/>
+        <v>1.385189518</v>
+      </c>
+      <c r="T121" s="10">
+        <f t="shared" si="4"/>
+        <v>13.68088413</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
@@ -5197,22 +6472,22 @@
         <v>20</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D122" s="5">
         <v>13.0</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G122" s="12">
+      <c r="G122" s="7">
         <v>44720.0</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I122" s="8">
         <v>2.0</v>
@@ -5249,9 +6524,12 @@
         <f t="shared" si="3"/>
         <v>16.28320783</v>
       </c>
-      <c r="T122" s="11">
+      <c r="T122" s="9">
         <f t="shared" si="4"/>
         <v>25.64284697</v>
+      </c>
+      <c r="U122" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -5263,22 +6541,22 @@
         <v>20</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D123" s="5">
         <v>14.0</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G123" s="12">
+      <c r="G123" s="7">
         <v>44726.0</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I123" s="8">
         <v>4.0</v>
@@ -5315,9 +6593,12 @@
         <f t="shared" si="3"/>
         <v>6.053334382</v>
       </c>
-      <c r="T123" s="11">
+      <c r="T123" s="9">
         <f t="shared" si="4"/>
         <v>21.42773233</v>
+      </c>
+      <c r="U123" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
@@ -5329,28 +6610,55 @@
         <v>20</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D124" s="5">
         <v>15.0</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R124" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S124" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T124" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G124" s="7">
+        <v>44739.0</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I124" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J124" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="K124" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="L124" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="M124" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="N124" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="O124" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="R124" s="3">
+        <f t="shared" si="2"/>
+        <v>19.75</v>
+      </c>
+      <c r="S124" s="3">
+        <f t="shared" si="3"/>
+        <v>1.405346932</v>
+      </c>
+      <c r="T124" s="10">
+        <f t="shared" si="4"/>
+        <v>7.11568067</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
@@ -5362,22 +6670,22 @@
         <v>20</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D125" s="5">
         <v>16.0</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G125" s="12">
+      <c r="G125" s="7">
         <v>44725.0</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I125" s="8">
         <v>2.0</v>
@@ -5408,7 +6716,7 @@
         <f t="shared" si="3"/>
         <v>7.8320921</v>
       </c>
-      <c r="T125" s="9">
+      <c r="T125" s="10">
         <f t="shared" si="4"/>
         <v>11.8818085</v>
       </c>
@@ -5422,22 +6730,22 @@
         <v>20</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D126" s="5">
         <v>17.0</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G126" s="12">
+      <c r="G126" s="7">
         <v>44728.0</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I126" s="8">
         <v>2.0</v>
@@ -5474,9 +6782,12 @@
         <f t="shared" si="3"/>
         <v>7.29940066</v>
       </c>
-      <c r="T126" s="11">
+      <c r="T126" s="9">
         <f t="shared" si="4"/>
         <v>17.30228305</v>
+      </c>
+      <c r="U126" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
@@ -5488,28 +6799,55 @@
         <v>20</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D127" s="5">
         <v>18.0</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R127" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S127" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T127" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G127" s="7">
+        <v>44739.0</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I127" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J127" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="K127" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="L127" s="8">
+        <v>133.0</v>
+      </c>
+      <c r="M127" s="8">
+        <v>145.0</v>
+      </c>
+      <c r="N127" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="O127" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="R127" s="3">
+        <f t="shared" si="2"/>
+        <v>65.08333333</v>
+      </c>
+      <c r="S127" s="3">
+        <f t="shared" si="3"/>
+        <v>6.763258583</v>
+      </c>
+      <c r="T127" s="10">
+        <f t="shared" si="4"/>
+        <v>10.39169053</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
@@ -5521,22 +6859,22 @@
         <v>20</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D128" s="5">
         <v>19.0</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G128" s="12">
+      <c r="G128" s="7">
         <v>44728.0</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I128" s="8">
         <v>2.0</v>
@@ -5567,7 +6905,7 @@
         <f t="shared" si="3"/>
         <v>2.734044623</v>
       </c>
-      <c r="T128" s="9">
+      <c r="T128" s="10">
         <f t="shared" si="4"/>
         <v>5.334721215</v>
       </c>
@@ -5581,22 +6919,22 @@
         <v>20</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D129" s="5">
         <v>20.0</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G129" s="12">
+      <c r="G129" s="7">
         <v>44725.0</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I129" s="8">
         <v>4.0</v>
@@ -5633,9 +6971,12 @@
         <f t="shared" si="3"/>
         <v>3.831116725</v>
       </c>
-      <c r="T129" s="11">
+      <c r="T129" s="9">
         <f t="shared" si="4"/>
         <v>23.35156861</v>
+      </c>
+      <c r="U129" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
@@ -5647,22 +6988,22 @@
         <v>20</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D130" s="5">
         <v>21.0</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G130" s="12">
+      <c r="G130" s="7">
         <v>44727.0</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I130" s="8">
         <v>2.0</v>
@@ -5693,7 +7034,7 @@
         <f t="shared" si="3"/>
         <v>5.607286926</v>
       </c>
-      <c r="T130" s="9">
+      <c r="T130" s="10">
         <f t="shared" si="4"/>
         <v>10.08807243</v>
       </c>
@@ -5707,28 +7048,55 @@
         <v>20</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D131" s="5">
         <v>23.0</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R131" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S131" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T131" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G131" s="7">
+        <v>44740.0</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I131" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J131" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="K131" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="L131" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="M131" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="N131" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="O131" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="R131" s="3">
+        <f t="shared" si="2"/>
+        <v>35.61111111</v>
+      </c>
+      <c r="S131" s="3">
+        <f t="shared" si="3"/>
+        <v>4.378821083</v>
+      </c>
+      <c r="T131" s="10">
+        <f t="shared" si="4"/>
+        <v>12.29622145</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
@@ -5740,22 +7108,22 @@
         <v>20</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D132" s="5">
         <v>24.0</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G132" s="13">
+        <v>53</v>
+      </c>
+      <c r="G132" s="11">
         <v>44720.0</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I132" s="8">
         <v>3.0</v>
@@ -5786,7 +7154,7 @@
         <f t="shared" si="3"/>
         <v>18.68540726</v>
       </c>
-      <c r="T132" s="11">
+      <c r="T132" s="9">
         <f t="shared" si="4"/>
         <v>38.79323306</v>
       </c>
@@ -5800,22 +7168,22 @@
         <v>20</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D133" s="5">
         <v>24.0</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G133" s="13">
+        <v>54</v>
+      </c>
+      <c r="G133" s="11">
         <v>44736.0</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I133" s="8">
         <v>3.0</v>
@@ -5846,7 +7214,7 @@
         <f t="shared" si="3"/>
         <v>4.386849034</v>
       </c>
-      <c r="T133" s="9">
+      <c r="T133" s="10">
         <f t="shared" si="4"/>
         <v>10.87648521</v>
       </c>
@@ -5860,22 +7228,22 @@
         <v>20</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D134" s="5">
         <v>25.0</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G134" s="12">
+      <c r="G134" s="7">
         <v>44726.0</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I134" s="8">
         <v>4.0</v>
@@ -5906,7 +7274,7 @@
         <f t="shared" si="3"/>
         <v>2.572693141</v>
       </c>
-      <c r="T134" s="9">
+      <c r="T134" s="10">
         <f t="shared" si="4"/>
         <v>12.6267148</v>
       </c>
@@ -5920,22 +7288,22 @@
         <v>20</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D135" s="5">
         <v>26.0</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G135" s="12">
+      <c r="G135" s="7">
         <v>44725.0</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I135" s="8">
         <v>3.0</v>
@@ -5966,7 +7334,7 @@
         <f t="shared" si="3"/>
         <v>5.643744489</v>
       </c>
-      <c r="T135" s="9">
+      <c r="T135" s="10">
         <f t="shared" si="4"/>
         <v>14.89551331</v>
       </c>
@@ -5980,28 +7348,61 @@
         <v>20</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D136" s="5">
         <v>27.0</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R136" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S136" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T136" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G136" s="7">
+        <v>44739.0</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I136" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J136" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="K136" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="L136" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="M136" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="N136" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="O136" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="P136" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="Q136" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="R136" s="3">
+        <f t="shared" si="2"/>
+        <v>11.625</v>
+      </c>
+      <c r="S136" s="3">
+        <f t="shared" si="3"/>
+        <v>1.706081559</v>
+      </c>
+      <c r="T136" s="10">
+        <f t="shared" si="4"/>
+        <v>14.6759704</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
@@ -6013,22 +7414,22 @@
         <v>20</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D137" s="5">
         <v>28.0</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G137" s="12">
+      <c r="G137" s="7">
         <v>44736.0</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I137" s="8">
         <v>3.0</v>
@@ -6059,7 +7460,7 @@
         <f t="shared" si="3"/>
         <v>5.088840369</v>
       </c>
-      <c r="T137" s="9">
+      <c r="T137" s="10">
         <f t="shared" si="4"/>
         <v>11.89599047</v>
       </c>
@@ -6073,22 +7474,22 @@
         <v>20</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D138" s="5">
         <v>29.0</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G138" s="12">
+      <c r="G138" s="7">
         <v>44727.0</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I138" s="8">
         <v>3.0</v>
@@ -6119,7 +7520,7 @@
         <f t="shared" si="3"/>
         <v>2.347575582</v>
       </c>
-      <c r="T138" s="9">
+      <c r="T138" s="10">
         <f t="shared" si="4"/>
         <v>7.260543036</v>
       </c>
@@ -6133,22 +7534,22 @@
         <v>20</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D139" s="5">
         <v>30.0</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G139" s="13">
+      <c r="G139" s="11">
         <v>44720.0</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I139" s="8">
         <v>2.0</v>
@@ -6185,9 +7586,12 @@
         <f t="shared" si="3"/>
         <v>14.78657692</v>
       </c>
-      <c r="T139" s="11">
+      <c r="T139" s="9">
         <f t="shared" si="4"/>
         <v>26.40460165</v>
+      </c>
+      <c r="U139" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
@@ -6199,22 +7603,22 @@
         <v>20</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D140" s="5">
         <v>31.0</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G140" s="12">
+      <c r="G140" s="7">
         <v>44736.0</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I140" s="8">
         <v>2.0</v>
@@ -6245,7 +7649,7 @@
         <f t="shared" si="3"/>
         <v>7.552593374</v>
       </c>
-      <c r="T140" s="9">
+      <c r="T140" s="10">
         <f t="shared" si="4"/>
         <v>14.54753138</v>
       </c>
@@ -6259,28 +7663,55 @@
         <v>20</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D141" s="5">
         <v>32.0</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R141" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S141" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T141" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G141" s="7">
+        <v>44739.0</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I141" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J141" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="K141" s="8">
+        <v>160.0</v>
+      </c>
+      <c r="L141" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="M141" s="8">
+        <v>131.0</v>
+      </c>
+      <c r="N141" s="8">
+        <v>139.0</v>
+      </c>
+      <c r="O141" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="R141" s="3">
+        <f t="shared" si="2"/>
+        <v>46.83333333</v>
+      </c>
+      <c r="S141" s="3">
+        <f t="shared" si="3"/>
+        <v>4.627214185</v>
+      </c>
+      <c r="T141" s="10">
+        <f t="shared" si="4"/>
+        <v>9.880172636</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
@@ -6292,22 +7723,22 @@
         <v>20</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D142" s="5">
         <v>33.0</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="13">
         <v>44706.0</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I142" s="3">
         <v>3.0</v>
@@ -6341,7 +7772,7 @@
         <f t="shared" si="3"/>
         <v>5.2594083</v>
       </c>
-      <c r="T142" s="9">
+      <c r="T142" s="10">
         <f t="shared" si="4"/>
         <v>13.30693666</v>
       </c>
@@ -6355,28 +7786,61 @@
         <v>20</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D143" s="5">
         <v>34.0</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R143" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S143" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T143" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>53</v>
+      </c>
+      <c r="G143" s="7">
+        <v>44739.0</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I143" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J143" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="K143" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="L143" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="M143" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="N143" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="O143" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="P143" s="8">
+        <v>54.0</v>
+      </c>
+      <c r="Q143" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="R143" s="3">
+        <f t="shared" si="2"/>
+        <v>14.90625</v>
+      </c>
+      <c r="S143" s="3">
+        <f t="shared" si="3"/>
+        <v>3.821783194</v>
+      </c>
+      <c r="T143" s="9">
+        <f t="shared" si="4"/>
+        <v>25.63879711</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
@@ -6388,22 +7852,22 @@
         <v>20</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D144" s="5">
         <v>36.0</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G144" s="10">
+        <v>53</v>
+      </c>
+      <c r="G144" s="13">
         <v>44706.0</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I144" s="3">
         <v>3.0</v>
@@ -6434,7 +7898,7 @@
         <f t="shared" si="3"/>
         <v>4.260499014</v>
       </c>
-      <c r="T144" s="9">
+      <c r="T144" s="10">
         <f t="shared" si="4"/>
         <v>9.456101388</v>
       </c>
@@ -6448,28 +7912,55 @@
         <v>20</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D145" s="5">
         <v>36.0</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R145" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S145" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T145" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>54</v>
+      </c>
+      <c r="G145" s="7">
+        <v>44740.0</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I145" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J145" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="K145" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="L145" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="M145" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="N145" s="8">
+        <v>84.0</v>
+      </c>
+      <c r="O145" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="R145" s="3">
+        <f t="shared" si="2"/>
+        <v>49.75</v>
+      </c>
+      <c r="S145" s="3">
+        <f t="shared" si="3"/>
+        <v>7.26464039</v>
+      </c>
+      <c r="T145" s="10">
+        <f t="shared" si="4"/>
+        <v>14.60229224</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
@@ -6481,31 +7972,58 @@
         <v>20</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D146" s="5">
         <v>37.0</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="R146" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S146" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T146" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="G146" s="7">
+        <v>44739.0</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I146" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J146" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="K146" s="8">
+        <v>88.0</v>
+      </c>
+      <c r="L146" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="M146" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="N146" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="O146" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="R146" s="3">
+        <f t="shared" si="2"/>
+        <v>24.875</v>
+      </c>
+      <c r="S146" s="3">
+        <f t="shared" si="3"/>
+        <v>2.538454254</v>
+      </c>
+      <c r="T146" s="10">
+        <f t="shared" si="4"/>
+        <v>10.20484122</v>
+      </c>
+    </row>
+    <row r="147" ht="15.0" customHeight="1">
       <c r="A147" s="1" t="str">
         <f t="shared" si="1"/>
         <v>OFAV_SS_9EV41</v>
@@ -6514,22 +8032,22 @@
         <v>20</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D147" s="5">
         <v>38.0</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G147" s="10">
+      <c r="G147" s="13">
         <v>44706.0</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I147" s="3">
         <v>3.0</v>
@@ -6560,7 +8078,7 @@
         <f t="shared" si="3"/>
         <v>3.136995496</v>
       </c>
-      <c r="T147" s="9">
+      <c r="T147" s="10">
         <f t="shared" si="4"/>
         <v>8.032136405</v>
       </c>
@@ -6574,22 +8092,22 @@
         <v>20</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D148" s="5">
         <v>39.0</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G148" s="12">
+      <c r="G148" s="7">
         <v>44738.0</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I148" s="8">
         <v>2.0</v>
@@ -6620,7 +8138,7 @@
         <f t="shared" si="3"/>
         <v>8.475946358</v>
       </c>
-      <c r="T148" s="9">
+      <c r="T148" s="10">
         <f t="shared" si="4"/>
         <v>13.47170282</v>
       </c>
@@ -6631,7 +8149,7 @@
         <v>OFRA_PP_0CX4</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>21</v>
@@ -6640,7 +8158,7 @@
         <v>1.0</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>24</v>
@@ -6664,7 +8182,7 @@
         <v>OFRA_PP_0CX5</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>21</v>
@@ -6673,7 +8191,7 @@
         <v>2.0</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>24</v>
@@ -6697,7 +8215,7 @@
         <v>OFRA_PP_0GT1</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>21</v>
@@ -6730,7 +8248,7 @@
         <v>OFRA_PP_0GT5</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>21</v>
@@ -6739,7 +8257,7 @@
         <v>5.0</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>24</v>
@@ -6763,7 +8281,7 @@
         <v>OFRA_PP_1GT37</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>21</v>
@@ -6772,10 +8290,10 @@
         <v>7.0</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R153" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6796,7 +8314,7 @@
         <v>OFRA_PP_1GT37</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>21</v>
@@ -6805,10 +8323,10 @@
         <v>7.0</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R154" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6829,7 +8347,7 @@
         <v>OFRA_PP_1GT42</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>21</v>
@@ -6838,10 +8356,10 @@
         <v>8.0</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R155" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6862,7 +8380,7 @@
         <v>OFRA_PP_1GT42</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>21</v>
@@ -6871,10 +8389,10 @@
         <v>8.0</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R156" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6895,7 +8413,7 @@
         <v>OFRA_PP_2CX12</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>21</v>
@@ -6904,10 +8422,10 @@
         <v>12.0</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R157" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6928,7 +8446,7 @@
         <v>OFRA_PP_2CX12</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>21</v>
@@ -6937,10 +8455,10 @@
         <v>12.0</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R158" s="3" t="str">
         <f t="shared" si="2"/>
@@ -6961,7 +8479,7 @@
         <v>OFRA_PP_2GT10</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>21</v>
@@ -6970,7 +8488,7 @@
         <v>15.0</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>24</v>
@@ -6994,7 +8512,7 @@
         <v>OFRA_PP_2GT3</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>21</v>
@@ -7003,10 +8521,10 @@
         <v>16.0</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R160" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7027,7 +8545,7 @@
         <v>OFRA_PP_2GT3</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>21</v>
@@ -7036,10 +8554,10 @@
         <v>16.0</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R161" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7060,7 +8578,7 @@
         <v>OFRA_PP_2GT38</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>21</v>
@@ -7069,7 +8587,7 @@
         <v>18.0</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>24</v>
@@ -7093,7 +8611,7 @@
         <v>OFRA_PP_2GT41</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>21</v>
@@ -7102,10 +8620,10 @@
         <v>19.0</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R163" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7126,7 +8644,7 @@
         <v>OFRA_PP_2GT41</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>21</v>
@@ -7135,10 +8653,10 @@
         <v>19.0</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R164" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7159,7 +8677,7 @@
         <v>OFRA_PP_2GT7</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>21</v>
@@ -7168,10 +8686,10 @@
         <v>20.0</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R165" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7192,7 +8710,7 @@
         <v>OFRA_PP_2GT7</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>21</v>
@@ -7201,10 +8719,10 @@
         <v>20.0</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R166" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7225,7 +8743,7 @@
         <v>OFRA_PP_2HS11</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>21</v>
@@ -7234,7 +8752,7 @@
         <v>21.0</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>24</v>
@@ -7258,7 +8776,7 @@
         <v>OFRA_PP_2HS17</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>21</v>
@@ -7267,10 +8785,10 @@
         <v>22.0</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R168" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7291,7 +8809,7 @@
         <v>OFRA_PP_2HS17</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>21</v>
@@ -7300,10 +8818,10 @@
         <v>22.0</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R169" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7324,7 +8842,7 @@
         <v>OFRA_PP_2HS27</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>21</v>
@@ -7333,7 +8851,7 @@
         <v>23.0</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>24</v>
@@ -7357,7 +8875,7 @@
         <v>OFRA_PP_2HS9</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>21</v>
@@ -7366,10 +8884,10 @@
         <v>24.0</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R171" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7390,7 +8908,7 @@
         <v>OFRA_PP_2HS9</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>21</v>
@@ -7399,10 +8917,10 @@
         <v>24.0</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R172" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7423,7 +8941,7 @@
         <v>OFRA_PP_4CX12</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>21</v>
@@ -7432,10 +8950,10 @@
         <v>25.0</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R173" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7456,7 +8974,7 @@
         <v>OFRA_PP_4HS15</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>21</v>
@@ -7465,7 +8983,7 @@
         <v>27.0</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>24</v>
@@ -7489,7 +9007,7 @@
         <v>OFRA_PP_6EV18</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>21</v>
@@ -7498,7 +9016,7 @@
         <v>29.0</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>24</v>
@@ -7522,7 +9040,7 @@
         <v>OFRA_PP_6GT17</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>21</v>
@@ -7531,7 +9049,7 @@
         <v>30.0</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>24</v>
@@ -7555,7 +9073,7 @@
         <v>OFRA_PP_8CX24</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>21</v>
@@ -7564,7 +9082,7 @@
         <v>31.0</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>24</v>
@@ -7588,7 +9106,7 @@
         <v>OFRA_PP_8HS21</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>21</v>
@@ -7597,7 +9115,7 @@
         <v>32.0</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>24</v>
@@ -7621,7 +9139,7 @@
         <v>OFRA_PP_8HS23</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>21</v>
@@ -7630,7 +9148,7 @@
         <v>33.0</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>24</v>
@@ -7654,7 +9172,7 @@
         <v>OFRA_PP_8HS24</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>21</v>
@@ -7663,7 +9181,7 @@
         <v>34.0</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>24</v>
@@ -7687,7 +9205,7 @@
         <v>OFRA_PP_9CX5</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>21</v>
@@ -7696,10 +9214,10 @@
         <v>35.0</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R181" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7720,7 +9238,7 @@
         <v>OFRA_PP_9CX5</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>21</v>
@@ -7729,10 +9247,10 @@
         <v>35.0</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R182" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7753,7 +9271,7 @@
         <v>OFRA_PP_9GT30</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>21</v>
@@ -7762,10 +9280,10 @@
         <v>37.0</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R183" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7786,7 +9304,7 @@
         <v>OFRA_PP_9GT30</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>21</v>
@@ -7795,10 +9313,10 @@
         <v>37.0</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R184" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7819,7 +9337,7 @@
         <v>OFRA_PS_0CX4</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>48</v>
@@ -7828,22 +9346,49 @@
         <v>1.0</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R185" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S185" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T185" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G185" s="7">
+        <v>44748.0</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I185" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J185" s="8">
+        <v>132.0</v>
+      </c>
+      <c r="K185" s="8">
+        <v>146.0</v>
+      </c>
+      <c r="L185" s="8">
+        <v>138.0</v>
+      </c>
+      <c r="M185" s="8">
+        <v>144.0</v>
+      </c>
+      <c r="N185" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="O185" s="8">
+        <v>158.0</v>
+      </c>
+      <c r="R185" s="3">
+        <f t="shared" si="2"/>
+        <v>46.88888889</v>
+      </c>
+      <c r="S185" s="3">
+        <f t="shared" si="3"/>
+        <v>3.763371223</v>
+      </c>
+      <c r="T185" s="10">
+        <f t="shared" si="4"/>
+        <v>8.026147158</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
@@ -7852,7 +9397,7 @@
         <v>OFRA_PS_0CX5</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>48</v>
@@ -7861,22 +9406,55 @@
         <v>2.0</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F186" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R186" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S186" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T186" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G186" s="7">
+        <v>44763.0</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I186" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J186" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="K186" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="L186" s="8">
+        <v>99.0</v>
+      </c>
+      <c r="M186" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="N186" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="O186" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="P186" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="Q186" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="R186" s="3">
+        <f t="shared" si="2"/>
+        <v>27.34375</v>
+      </c>
+      <c r="S186" s="3">
+        <f t="shared" si="3"/>
+        <v>4.678861087</v>
+      </c>
+      <c r="T186" s="9">
+        <f t="shared" si="4"/>
+        <v>17.1112634</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -7885,7 +9463,7 @@
         <v>OFRA_PS_0GT1</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>48</v>
@@ -7899,17 +9477,47 @@
       <c r="F187" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R187" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S187" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T187" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G187" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I187" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J187" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="K187" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="L187" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="M187" s="8">
+        <v>99.0</v>
+      </c>
+      <c r="N187" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="O187" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="R187" s="3">
+        <f t="shared" si="2"/>
+        <v>52.33333333</v>
+      </c>
+      <c r="S187" s="3">
+        <f t="shared" si="3"/>
+        <v>3.829708431</v>
+      </c>
+      <c r="T187" s="10">
+        <f t="shared" si="4"/>
+        <v>7.317914199</v>
+      </c>
+      <c r="U187" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
@@ -7918,7 +9526,7 @@
         <v>OFRA_PS_0GT3</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>48</v>
@@ -7927,22 +9535,49 @@
         <v>4.0</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F188" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R188" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S188" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T188" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G188" s="7">
+        <v>44763.0</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I188" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J188" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="K188" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="L188" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="M188" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="N188" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="O188" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="R188" s="3">
+        <f t="shared" si="2"/>
+        <v>57.33333333</v>
+      </c>
+      <c r="S188" s="3">
+        <f t="shared" si="3"/>
+        <v>7.724420151</v>
+      </c>
+      <c r="T188" s="10">
+        <f t="shared" si="4"/>
+        <v>13.47282584</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
@@ -7951,7 +9586,7 @@
         <v>OFRA_PS_0GT5</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>48</v>
@@ -7960,10 +9595,10 @@
         <v>5.0</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R189" s="3" t="str">
         <f t="shared" si="2"/>
@@ -7984,7 +9619,7 @@
         <v>OFRA_PS_0GT5</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>48</v>
@@ -7993,10 +9628,10 @@
         <v>5.0</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R190" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8017,7 +9652,7 @@
         <v>OFRA_PS_1GT37</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>48</v>
@@ -8026,7 +9661,7 @@
         <v>7.0</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>24</v>
@@ -8050,7 +9685,7 @@
         <v>OFRA_PS_1GT42</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>48</v>
@@ -8059,7 +9694,7 @@
         <v>8.0</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F192" s="5" t="s">
         <v>24</v>
@@ -8083,7 +9718,7 @@
         <v>OFRA_PS_1GT43</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>48</v>
@@ -8092,7 +9727,7 @@
         <v>9.0</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F193" s="5" t="s">
         <v>24</v>
@@ -8116,7 +9751,7 @@
         <v>OFRA_PS_2CX10</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>48</v>
@@ -8125,7 +9760,7 @@
         <v>10.0</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F194" s="5" t="s">
         <v>24</v>
@@ -8149,7 +9784,7 @@
         <v>OFRA_PS_2CX12</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>48</v>
@@ -8158,7 +9793,7 @@
         <v>12.0</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F195" s="5" t="s">
         <v>24</v>
@@ -8182,7 +9817,7 @@
         <v>OFRA_PS_2CX13</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>48</v>
@@ -8191,7 +9826,7 @@
         <v>13.0</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F196" s="5" t="s">
         <v>24</v>
@@ -8215,7 +9850,7 @@
         <v>OFRA_PS_2CX8</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>48</v>
@@ -8224,7 +9859,7 @@
         <v>14.0</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F197" s="5" t="s">
         <v>24</v>
@@ -8248,7 +9883,7 @@
         <v>OFRA_PS_2GT10</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>48</v>
@@ -8257,7 +9892,7 @@
         <v>15.0</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F198" s="5" t="s">
         <v>24</v>
@@ -8281,7 +9916,7 @@
         <v>OFRA_PS_2GT3</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>48</v>
@@ -8290,7 +9925,7 @@
         <v>16.0</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F199" s="5" t="s">
         <v>24</v>
@@ -8314,7 +9949,7 @@
         <v>OFRA_PS_2GT30</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>48</v>
@@ -8323,10 +9958,10 @@
         <v>22</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="R200" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8347,7 +9982,7 @@
         <v>OFRA_PS_2GT31</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>48</v>
@@ -8356,7 +9991,7 @@
         <v>17.0</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F201" s="5" t="s">
         <v>24</v>
@@ -8380,7 +10015,7 @@
         <v>OFRA_PS_2GT41</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>48</v>
@@ -8389,7 +10024,7 @@
         <v>19.0</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F202" s="5" t="s">
         <v>24</v>
@@ -8413,7 +10048,7 @@
         <v>OFRA_PS_2GT7</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>48</v>
@@ -8422,22 +10057,49 @@
         <v>20.0</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F203" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R203" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S203" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T203" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G203" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I203" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J203" s="8">
+        <v>129.0</v>
+      </c>
+      <c r="K203" s="8">
+        <v>128.0</v>
+      </c>
+      <c r="L203" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="M203" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="N203" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="O203" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="R203" s="3">
+        <f t="shared" si="2"/>
+        <v>29.29166667</v>
+      </c>
+      <c r="S203" s="3">
+        <f t="shared" si="3"/>
+        <v>3.030745233</v>
+      </c>
+      <c r="T203" s="10">
+        <f t="shared" si="4"/>
+        <v>10.34678316</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
@@ -8446,7 +10108,7 @@
         <v>OFRA_PS_2HS11</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>48</v>
@@ -8455,7 +10117,7 @@
         <v>21.0</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>24</v>
@@ -8479,7 +10141,7 @@
         <v>OFRA_PS_2HS17</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>48</v>
@@ -8488,7 +10150,7 @@
         <v>22.0</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F205" s="5" t="s">
         <v>24</v>
@@ -8512,7 +10174,7 @@
         <v>OFRA_PS_2HS27</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>48</v>
@@ -8521,22 +10183,55 @@
         <v>23.0</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R206" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S206" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T206" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G206" s="7">
+        <v>44763.0</v>
+      </c>
+      <c r="H206" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I206" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J206" s="8">
+        <v>177.0</v>
+      </c>
+      <c r="K206" s="8">
+        <v>220.0</v>
+      </c>
+      <c r="L206" s="8">
+        <v>160.0</v>
+      </c>
+      <c r="M206" s="8">
+        <v>152.0</v>
+      </c>
+      <c r="N206" s="8">
+        <v>147.0</v>
+      </c>
+      <c r="O206" s="8">
+        <v>210.0</v>
+      </c>
+      <c r="P206" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="Q206" s="8">
+        <v>174.0</v>
+      </c>
+      <c r="R206" s="3">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="S206" s="3">
+        <f t="shared" si="3"/>
+        <v>16.49458786</v>
+      </c>
+      <c r="T206" s="9">
+        <f t="shared" si="4"/>
+        <v>19.40539748</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
@@ -8545,7 +10240,7 @@
         <v>OFRA_PS_2HS9</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>48</v>
@@ -8554,7 +10249,7 @@
         <v>24.0</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F207" s="5" t="s">
         <v>24</v>
@@ -8578,7 +10273,7 @@
         <v>OFRA_PS_4CX12</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>48</v>
@@ -8587,22 +10282,55 @@
         <v>25.0</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R208" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S208" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T208" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G208" s="7">
+        <v>44748.0</v>
+      </c>
+      <c r="H208" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I208" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J208" s="8">
+        <v>168.0</v>
+      </c>
+      <c r="K208" s="8">
+        <v>154.0</v>
+      </c>
+      <c r="L208" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="M208" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="N208" s="8">
+        <v>149.0</v>
+      </c>
+      <c r="O208" s="8">
+        <v>150.0</v>
+      </c>
+      <c r="P208" s="8">
+        <v>137.0</v>
+      </c>
+      <c r="Q208" s="8">
+        <v>131.0</v>
+      </c>
+      <c r="R208" s="3">
+        <f t="shared" si="2"/>
+        <v>68.6875</v>
+      </c>
+      <c r="S208" s="3">
+        <f t="shared" si="3"/>
+        <v>12.18587443</v>
+      </c>
+      <c r="T208" s="9">
+        <f t="shared" si="4"/>
+        <v>17.74103648</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
@@ -8611,7 +10339,7 @@
         <v>OFRA_PS_4HS13</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>48</v>
@@ -8620,22 +10348,49 @@
         <v>26.0</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F209" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R209" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S209" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T209" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G209" s="7">
+        <v>44763.0</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I209" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J209" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="K209" s="8">
+        <v>132.0</v>
+      </c>
+      <c r="L209" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="M209" s="8">
+        <v>155.0</v>
+      </c>
+      <c r="N209" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="O209" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="R209" s="3">
+        <f t="shared" si="2"/>
+        <v>33.33333333</v>
+      </c>
+      <c r="S209" s="3">
+        <f t="shared" si="3"/>
+        <v>3.920034013</v>
+      </c>
+      <c r="T209" s="10">
+        <f t="shared" si="4"/>
+        <v>11.76010204</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
@@ -8644,7 +10399,7 @@
         <v>OFRA_PS_4HS15</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>48</v>
@@ -8653,7 +10408,7 @@
         <v>27.0</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F210" s="5" t="s">
         <v>24</v>
@@ -8677,7 +10432,7 @@
         <v>OFRA_PS_6CX18</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>48</v>
@@ -8686,22 +10441,49 @@
         <v>28.0</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F211" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R211" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S211" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T211" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G211" s="7">
+        <v>44763.0</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I211" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J211" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="K211" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="L211" s="8">
+        <v>100.0</v>
+      </c>
+      <c r="M211" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="N211" s="8">
+        <v>122.0</v>
+      </c>
+      <c r="O211" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="R211" s="3">
+        <f t="shared" si="2"/>
+        <v>38.66666667</v>
+      </c>
+      <c r="S211" s="3">
+        <f t="shared" si="3"/>
+        <v>3.091206165</v>
+      </c>
+      <c r="T211" s="10">
+        <f t="shared" si="4"/>
+        <v>7.994498703</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
@@ -8710,7 +10492,7 @@
         <v>OFRA_PS_6EV18</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>48</v>
@@ -8719,10 +10501,10 @@
         <v>29.0</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="R212" s="3" t="str">
         <f t="shared" si="2"/>
@@ -8743,7 +10525,7 @@
         <v>OFRA_PS_6GT17</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>48</v>
@@ -8752,7 +10534,7 @@
         <v>30.0</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F213" s="5" t="s">
         <v>24</v>
@@ -8776,7 +10558,7 @@
         <v>OFRA_PS_8CX24</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>48</v>
@@ -8785,7 +10567,7 @@
         <v>31.0</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F214" s="5" t="s">
         <v>24</v>
@@ -8809,7 +10591,7 @@
         <v>OFRA_PS_8HS23</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>48</v>
@@ -8818,22 +10600,49 @@
         <v>33.0</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F215" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R215" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S215" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T215" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G215" s="7">
+        <v>44747.0</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I215" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J215" s="8">
+        <v>100.0</v>
+      </c>
+      <c r="K215" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="L215" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="M215" s="8">
+        <v>84.0</v>
+      </c>
+      <c r="N215" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="O215" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="R215" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="S215" s="3">
+        <f t="shared" si="3"/>
+        <v>3.605551275</v>
+      </c>
+      <c r="T215" s="10">
+        <f t="shared" si="4"/>
+        <v>8.012336168</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
@@ -8842,7 +10651,7 @@
         <v>OFRA_PS_8HS24</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>48</v>
@@ -8851,22 +10660,55 @@
         <v>34.0</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R216" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S216" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T216" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G216" s="7">
+        <v>44748.0</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I216" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J216" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="K216" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="L216" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="M216" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="N216" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="O216" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="P216" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="Q216" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="R216" s="3">
+        <f t="shared" si="2"/>
+        <v>23.03125</v>
+      </c>
+      <c r="S216" s="3">
+        <f t="shared" si="3"/>
+        <v>3.536638588</v>
+      </c>
+      <c r="T216" s="9">
+        <f t="shared" si="4"/>
+        <v>15.35582562</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
@@ -8875,7 +10717,7 @@
         <v>OFRA_PS_9CX5</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>48</v>
@@ -8884,22 +10726,49 @@
         <v>35.0</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F217" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R217" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S217" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T217" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G217" s="7">
+        <v>44748.0</v>
+      </c>
+      <c r="H217" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I217" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J217" s="8">
+        <v>140.0</v>
+      </c>
+      <c r="K217" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="L217" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="M217" s="8">
+        <v>132.0</v>
+      </c>
+      <c r="N217" s="8">
+        <v>135.0</v>
+      </c>
+      <c r="O217" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="R217" s="3">
+        <f t="shared" si="2"/>
+        <v>66.08333333</v>
+      </c>
+      <c r="S217" s="3">
+        <f t="shared" si="3"/>
+        <v>6.583438818</v>
+      </c>
+      <c r="T217" s="10">
+        <f t="shared" si="4"/>
+        <v>9.962328602</v>
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
@@ -8908,7 +10777,7 @@
         <v>OFRA_PS_9CX6</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>48</v>
@@ -8917,22 +10786,49 @@
         <v>36.0</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F218" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R218" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S218" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T218" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G218" s="7">
+        <v>44763.0</v>
+      </c>
+      <c r="H218" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I218" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J218" s="8">
+        <v>148.0</v>
+      </c>
+      <c r="K218" s="8">
+        <v>156.0</v>
+      </c>
+      <c r="L218" s="8">
+        <v>208.0</v>
+      </c>
+      <c r="M218" s="8">
+        <v>191.0</v>
+      </c>
+      <c r="N218" s="8">
+        <v>160.0</v>
+      </c>
+      <c r="O218" s="8">
+        <v>160.0</v>
+      </c>
+      <c r="R218" s="3">
+        <f t="shared" si="2"/>
+        <v>56.83333333</v>
+      </c>
+      <c r="S218" s="3">
+        <f t="shared" si="3"/>
+        <v>7.836524173</v>
+      </c>
+      <c r="T218" s="10">
+        <f t="shared" si="4"/>
+        <v>13.78860558</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
@@ -8941,7 +10837,7 @@
         <v>OFRA_PS_9GT30</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>48</v>
@@ -8950,22 +10846,49 @@
         <v>37.0</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F219" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R219" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S219" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T219" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G219" s="7">
+        <v>44748.0</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I219" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J219" s="8">
+        <v>70.0</v>
+      </c>
+      <c r="K219" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="L219" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="M219" s="8">
+        <v>64.0</v>
+      </c>
+      <c r="N219" s="8">
+        <v>57.0</v>
+      </c>
+      <c r="O219" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="R219" s="3">
+        <f t="shared" si="2"/>
+        <v>14.83333333</v>
+      </c>
+      <c r="S219" s="3">
+        <f t="shared" si="3"/>
+        <v>1.64062996</v>
+      </c>
+      <c r="T219" s="10">
+        <f t="shared" si="4"/>
+        <v>11.0604267</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
@@ -8974,7 +10897,7 @@
         <v>OFRA_PS_9GT47</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>48</v>
@@ -8983,22 +10906,49 @@
         <v>38.0</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F220" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R220" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S220" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T220" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G220" s="7">
+        <v>44748.0</v>
+      </c>
+      <c r="H220" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I220" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J220" s="8">
+        <v>181.0</v>
+      </c>
+      <c r="K220" s="8">
+        <v>165.0</v>
+      </c>
+      <c r="L220" s="8">
+        <v>157.0</v>
+      </c>
+      <c r="M220" s="8">
+        <v>129.0</v>
+      </c>
+      <c r="N220" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="O220" s="8">
+        <v>149.0</v>
+      </c>
+      <c r="R220" s="3">
+        <f t="shared" si="2"/>
+        <v>50.38888889</v>
+      </c>
+      <c r="S220" s="3">
+        <f t="shared" si="3"/>
+        <v>7.062944512</v>
+      </c>
+      <c r="T220" s="10">
+        <f t="shared" si="4"/>
+        <v>14.01686893</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
@@ -9007,18 +10957,18 @@
         <v>PRACTICE_30OA1_44685</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-      <c r="G221" s="10">
+      <c r="G221" s="13">
         <v>44685.0</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I221" s="3">
         <v>4.0</v>
@@ -9052,7 +11002,7 @@
         <f t="shared" si="3"/>
         <v>2.49880924</v>
       </c>
-      <c r="T221" s="9">
+      <c r="T221" s="10">
         <f t="shared" si="4"/>
         <v>13.6387249</v>
       </c>
@@ -9063,10 +11013,10 @@
         <v>PRACTICE_55SS1T_</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -9090,10 +11040,10 @@
         <v>PRACTICE_Branching_Pavona_</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -9117,10 +11067,10 @@
         <v>PRACTICE_Green_Encrusting_Pavona_</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -9144,10 +11094,10 @@
         <v>PRACTICE_Pagoda_Cup_</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -9171,19 +11121,19 @@
         <v>PRACTICE_Tangerine_Leoptoseris_</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="10">
+      <c r="G226" s="13">
         <v>44685.0</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="I226" s="3">
         <v>4.0</v>
@@ -9214,7 +11164,7 @@
         <f t="shared" si="3"/>
         <v>1.319722193</v>
       </c>
-      <c r="T226" s="9">
+      <c r="T226" s="10">
         <f t="shared" si="4"/>
         <v>6.739006943</v>
       </c>
@@ -9296,13 +11246,16 @@
       <c r="F231" s="1"/>
       <c r="W231" s="15"/>
       <c r="X231" s="16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Y231" s="16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Z231" s="16" t="s">
-        <v>150</v>
+        <v>155</v>
+      </c>
+      <c r="AA231" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
@@ -9313,7 +11266,7 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="W232" s="17" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="X232" s="18">
         <f>COUNTIF(T2:T40,"&lt;15")</f>
@@ -9324,6 +11277,10 @@
         <v>0</v>
       </c>
       <c r="Z232" s="18">
+        <f>COUNTIF(T2:T40,"&gt;20")</f>
+        <v>0</v>
+      </c>
+      <c r="AA232" s="18">
         <f>COUNTIF(T2:T40,"#DIV/0!")</f>
         <v>39</v>
       </c>
@@ -9336,19 +11293,23 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="W233" s="17" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="X233" s="18">
         <f>COUNTIF(T41:T79,"&lt;15")</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y233" s="18">
         <f>COUNTIF(T41:T79,"&gt;15")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z233" s="18">
+        <f>COUNTIF(T41:T79,"&gt;20")</f>
+        <v>9</v>
+      </c>
+      <c r="AA233" s="18">
         <f>COUNTIF(T41:T79,"#DIV/0!")</f>
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
@@ -9359,7 +11320,7 @@
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
       <c r="W234" s="17" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="X234" s="18">
         <f>COUNTIF(T80:T110,"&lt;15")</f>
@@ -9370,6 +11331,10 @@
         <v>0</v>
       </c>
       <c r="Z234" s="18">
+        <f>COUNTIF(T80:T110,"&gt;20")</f>
+        <v>0</v>
+      </c>
+      <c r="AA234" s="18">
         <f>COUNTIF(T80:T110,"#DIV/0!")</f>
         <v>31</v>
       </c>
@@ -9382,19 +11347,23 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="W235" s="17" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="X235" s="18">
         <f>COUNTIF(T111:T148,"&lt;15")</f>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Y235" s="18">
         <f>COUNTIF(T111:T148,"&gt;15")</f>
+        <v>10</v>
+      </c>
+      <c r="Z235" s="18">
+        <f>COUNTIF(T111:T148,"&gt;20")</f>
         <v>7</v>
       </c>
-      <c r="Z235" s="18">
+      <c r="AA235" s="18">
         <f>COUNTIF(T111:T148,"#DIV/0!")</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
@@ -9405,18 +11374,22 @@
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
       <c r="W236" s="17" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="X236" s="18">
-        <f>COUNTIF(T149:Z184,"&lt;15")</f>
+        <f>COUNTIF(T149:AA184,"&lt;15")</f>
         <v>0</v>
       </c>
       <c r="Y236" s="18">
-        <f>COUNTIF(T149:Z184,"&lt;15")</f>
+        <f>COUNTIF(T149:AA184,"&lt;15")</f>
         <v>0</v>
       </c>
       <c r="Z236" s="18">
-        <f>COUNTIF(T149:Z184,"#DIV/0!")</f>
+        <f>COUNTIF(T149:AA184,"&lt;20")</f>
+        <v>0</v>
+      </c>
+      <c r="AA236" s="18">
+        <f>COUNTIF(T149:AA184,"#DIV/0!")</f>
         <v>36</v>
       </c>
     </row>
@@ -9428,19 +11401,23 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="W237" s="17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="X237" s="18">
         <f>COUNTIF(T185:T220,"&lt;15")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y237" s="18">
         <f>COUNTIF(T185:T220,"&gt;15")</f>
+        <v>4</v>
+      </c>
+      <c r="Z237" s="18">
+        <f>COUNTIF(T185:T220,"&gt;20")</f>
         <v>0</v>
       </c>
-      <c r="Z237" s="18">
+      <c r="AA237" s="18">
         <f>COUNTIF(T185:T220,"#DIV/0!")</f>
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
@@ -9451,19 +11428,23 @@
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
       <c r="W238" s="16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="X238" s="15">
-        <f t="shared" ref="X238:Z238" si="6">SUM(X232:X237)</f>
-        <v>18</v>
+        <f t="shared" ref="X238:AA238" si="6">SUM(X232:X237)</f>
+        <v>62</v>
       </c>
       <c r="Y238" s="15">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Z238" s="15">
         <f t="shared" si="6"/>
-        <v>194</v>
+        <v>16</v>
+      </c>
+      <c r="AA238" s="15">
+        <f t="shared" si="6"/>
+        <v>128</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
@@ -15130,7 +17111,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
@@ -15139,7 +17120,7 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
@@ -15148,16 +17129,16 @@
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B3" s="20"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
@@ -15165,15 +17146,15 @@
         <v>20</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -15181,7 +17162,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -15189,23 +17170,23 @@
         <v>48</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -15213,7 +17194,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
@@ -15221,7 +17202,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
@@ -15229,7 +17210,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14">
@@ -15237,23 +17218,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
